--- a/statistics/R/roiObjectLvl_Within-PLI_beta/roiObjectLvl_Within-PLI_beta.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_beta/roiObjectLvl_Within-PLI_beta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.011508270339792043</v>
+        <v>-0.010549247811476037</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0032862028909458885</v>
+        <v>-0.0030123526500337172</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>0.012518939319533268</v>
+        <v>0.011475694376238826</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0073888844075179483</v>
+        <v>-0.0067731440402247489</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.013537885509935149</v>
+        <v>0.012409728384107227</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.010301998894003239</v>
+        <v>0.0094434989861696128</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0053196582395217962</v>
+        <v>0.0048763533862282993</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.014671929377811782</v>
+        <v>0.013449268596327446</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0064880761263662601</v>
+        <v>-0.0059474031158357199</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.015917302362315172</v>
+        <v>-0.014590860498788882</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.00087281289327323375</v>
+        <v>0.00080007848550045502</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.001994375171884194</v>
+        <v>-0.0018281772408938468</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.0030855165126264239</v>
+        <v>-0.0028283901365742381</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.00021642663028736964</v>
+        <v>-0.00019839107776339904</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.00078470559019760966</v>
+        <v>0.00071931345768111443</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.008898106724193694</v>
+        <v>-0.0081565978305109255</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.00045302467117877554</v>
+        <v>-0.0004152726152472086</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0015862407166754577</v>
+        <v>-0.0014540539902858085</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.01066139948127523</v>
+        <v>-0.0097729495245022779</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0036947205919537485</v>
+        <v>0.0033868272092909824</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.014850007682152028</v>
+        <v>-0.013612507041972643</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.0011811920573449042</v>
+        <v>-0.00108275938589944</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0041056689474207875</v>
+        <v>0.0037635298684690621</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0029077547096612866</v>
+        <v>0.0026654418171895011</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0054859620077011839</v>
+        <v>0.0050287985070593955</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0040992698192324206</v>
+        <v>0.0037576640009630291</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0065160219875070313</v>
+        <v>-0.0059730201552147533</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.0071373828407076123</v>
+        <v>-0.0065426009373153182</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0029844719285712917</v>
+        <v>0.0027357659345237373</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.0076029351391670441</v>
+        <v>-0.0069693572109031376</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.0022973394336584796</v>
+        <v>0.0021058944808536317</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.0017147874041618938</v>
+        <v>-0.0015718884538151179</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.0044611111804787329</v>
+        <v>0.0040893519154388824</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.0029895225547399429</v>
+        <v>-0.002740395675178281</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.0027626251422835368</v>
+        <v>-0.0025324063804265384</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.0011883848840370803</v>
+        <v>-0.0010893528103673167</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.0021038077304061653</v>
+        <v>-0.0019284904195389918</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0089842390567028141</v>
+        <v>0.0082355524686442694</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.0082344195180633906</v>
+        <v>0.0075482178915580733</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.0011418399099558108</v>
+        <v>-0.0010466865841262107</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.01053013164814412</v>
+        <v>0.0096526206774654733</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.013903593387289054</v>
+        <v>0.012744960605014954</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.0083832870394135728</v>
+        <v>-0.0076846797861290783</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.0063428456936771294</v>
+        <v>-0.0058142752192040514</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.020080428066942685</v>
+        <v>-0.018407059061364139</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.012906696861148176</v>
+        <v>0.011831138789385853</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.0019401340605711137</v>
+        <v>0.0017784562221901945</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.011553780146457471</v>
+        <v>0.010590965134252728</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0023814268790519344</v>
+        <v>0.0021829746391309746</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0054013492228595639</v>
+        <v>-0.0049512367876211605</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.0024298719950894276</v>
+        <v>-0.0022273826621652948</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.005360642280627631</v>
+        <v>0.0049139220905753678</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.0044613595338232892</v>
+        <v>-0.0040895795726714479</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.00049218633434935932</v>
+        <v>0.00045117080648693353</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.0054217722695983905</v>
+        <v>-0.0049699579137985062</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.00016510313993153836</v>
+        <v>0.00015134454493720417</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>0.0091141395489220955</v>
+        <v>0.0083546279198453144</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.00096832433788951455</v>
+        <v>0.00088763064306540684</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.0034051697095175415</v>
+        <v>-0.0031214055670577556</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>0.00047610736016531763</v>
+        <v>0.00043643174681820551</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.0031634396622955141</v>
+        <v>-0.0028998196904375106</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.010283849320670641</v>
+        <v>0.0094268618772813395</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.0096944649739681144</v>
+        <v>-0.0088865928928041071</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.014058909743774078</v>
+        <v>0.012887333931792977</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.0073260766000520228</v>
+        <v>0.006715570216714345</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.0008686965208704045</v>
+        <v>-0.00079630514413123188</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.0081672078239583834</v>
+        <v>0.0074866071719618399</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.01103376809898543</v>
+        <v>0.010114287424070084</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.010296657321828967</v>
+        <v>-0.0094386025450098887</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.0030350084697911006</v>
+        <v>0.0027820910973084811</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.012714808004663042</v>
+        <v>-0.011655240670941175</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.0062700669107991214</v>
+        <v>-0.0057475613348992594</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.0040472007863312232</v>
+        <v>-0.0037099340541369985</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.0059715512614063604</v>
+        <v>-0.00547392198962246</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>0.0030372794347949539</v>
+        <v>0.0027841728152286915</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.0026480876864507785</v>
+        <v>0.0024274137125798734</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.002525676438719926</v>
+        <v>-0.0023152034021599599</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.0057313678855181183</v>
+        <v>-0.0052537538950582219</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.0061943777358797192</v>
+        <v>-0.0056781795912231037</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>0.0039170546416923691</v>
+        <v>0.0035906334215512481</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>0.008470852455814859</v>
+        <v>0.007764948084496931</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.000979284732145147</v>
+        <v>-0.00089767767113302366</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0068549278616704123</v>
+        <v>0.0062836838731979705</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>-0.013364114606350647</v>
+        <v>-0.012250438389154739</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>0.00083687583687583333</v>
+        <v>0.0007671361838028079</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.0086074870971896145</v>
+        <v>0.0078901965057571188</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.0026081982603721743</v>
+        <v>-0.0023908484053411783</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>0.0054525311962383138</v>
+        <v>0.0049981535965517854</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>0.0041160456180218408</v>
+        <v>0.0037730418165200508</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.0031210698303623108</v>
+        <v>-0.0028609806778321367</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.0020834640399857995</v>
+        <v>0.0019098420366536195</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.0052336516050148219</v>
+        <v>-0.0047975139712636283</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.00094532703228356052</v>
+        <v>0.00086654977959327306</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.0024193285062850678</v>
+        <v>0.0022177177974279372</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.0017143060621321871</v>
+        <v>-0.0015714472236211807</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.00021937521937523408</v>
+        <v>0.00020109395109396688</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.0037697174424863034</v>
+        <v>0.0034555743222791646</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.0054848442393391483</v>
+        <v>-0.005027773886060849</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.0030001021049613497</v>
+        <v>0.0027500935962146145</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.0021678186639823849</v>
+        <v>0.0019871671086505727</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.00010732883403691273</v>
+        <v>9.8384764533832048e-05</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.0073683198941998373</v>
+        <v>-0.0067542932363498231</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.0092881143088182627</v>
+        <v>-0.0085141047830833705</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.0092576540898432758</v>
+        <v>-0.008486182915689644</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.0034197805936936887</v>
+        <v>-0.0031347988775524416</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.0046506155336415167</v>
+        <v>-0.004263064239171388</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.005442258350219914</v>
+        <v>0.0049887368210349836</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>0.0072322098970065973</v>
+        <v>0.006629525738922698</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.013319622636392775</v>
+        <v>-0.012209654083360028</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.0094447251197822824</v>
+        <v>-0.008657664693133782</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.011908180386441231</v>
+        <v>0.010915832020904459</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.0054514018708392564</v>
+        <v>0.0049971183816026887</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>0.0095009660227051429</v>
+        <v>0.0087092188541463555</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>0.0025928157824393894</v>
+        <v>0.0023767478005694009</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.00082047908134860736</v>
+        <v>-0.00075210582456958219</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.024548550864340268</v>
+        <v>0.022502838292311922</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.013535883101100488</v>
+        <v>-0.012407892842675433</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>0.0058039892136002025</v>
+        <v>0.0053203234458001902</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.0015765286074210516</v>
+        <v>0.0014451512234693042</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>0.0091328786980961196</v>
+        <v>0.0083718054732547231</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.0017473713125886192</v>
+        <v>-0.0016017570365396139</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.0055727870492363607</v>
+        <v>-0.0051083881284666177</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>-0.0044818122881364331</v>
+        <v>-0.0041083279307916887</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.0043986390062577541</v>
+        <v>-0.0040320857557362422</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.025837792297419587</v>
+        <v>0.023684642939301337</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.00482752656665697</v>
+        <v>-0.0044252326861022595</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0022077177874279819</v>
+        <v>-0.0020237413051422681</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.0018642745350820333</v>
+        <v>-0.0017089183238252204</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>-0.0037015677747943287</v>
+        <v>-0.003393103793561475</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.003631112326764524</v>
+        <v>0.0033285196328674826</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>-0.006200046817895849</v>
+        <v>-0.0056833762497378593</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.018882536545580086</v>
+        <v>-0.017308991833448389</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.0075024205458987803</v>
+        <v>0.0068772188337405948</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0057084410631322025</v>
+        <v>-0.0052327376412044657</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.0032133727785901289</v>
+        <v>-0.0029455917137076459</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.0030106557566511316</v>
+        <v>-0.0027597677769302109</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.0034197517035045033</v>
+        <v>0.003134772394879165</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.0049937773049900658</v>
+        <v>0.0045776291962409121</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>0.0078031652244545113</v>
+        <v>0.0071529014557500381</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.0024213937257415719</v>
+        <v>0.0022196109152630428</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>-0.0015553256659975589</v>
+        <v>-0.0014257151938311674</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>-0.0076872468176815978</v>
+        <v>-0.007046642916208129</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.0021087430460666745</v>
+        <v>-0.0019330144588943776</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.0016181836834009977</v>
+        <v>-0.0014833350431176229</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.011476319256639667</v>
+        <v>0.010519959318586347</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.0091598495325203311</v>
+        <v>-0.008396528738143616</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.009522601710464984</v>
+        <v>0.0087290515679262215</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>-0.0037553328314197942</v>
+        <v>-0.0034423884288015127</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>-0.00054353858701686186</v>
+        <v>-0.00049824370476547752</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.0052193985484693395</v>
+        <v>-0.0047844486694302302</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.007523707752540687</v>
+        <v>0.0068967321064956622</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>0.0029789651261810379</v>
+        <v>0.0027307180323326019</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.0052759785679039883</v>
+        <v>0.0048363136872454082</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.0041399389225475758</v>
+        <v>0.003794944012335294</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0042791347139173042</v>
+        <v>-0.0039225401544242255</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.012346903651251462</v>
+        <v>-0.011317995013647192</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>-0.0034953697479577495</v>
+        <v>-0.0032040889356279578</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.0017016160073664299</v>
+        <v>0.001559814673419202</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.0042976818339137135</v>
+        <v>0.0039395416810875383</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0091171251109139206</v>
+        <v>-0.0083573646850044481</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.0011955430308465687</v>
+        <v>0.0010959144449426694</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.0074548923653783017</v>
+        <v>-0.0068336513349301908</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.0011235268672339371</v>
+        <v>-0.0010298996282977757</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.0035617861704818066</v>
+        <v>-0.0032649706562750402</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.0069015232058710074</v>
+        <v>0.0063263962720485067</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.00092923931933217019</v>
+        <v>0.00085180270938778335</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.0049926832535528154</v>
+        <v>0.0045766263157567544</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.0061696366044191875</v>
+        <v>-0.0056555002207176186</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.012563184302314789</v>
+        <v>0.011516252277121802</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.0069585395672351891</v>
+        <v>-0.0063786612699656131</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.006752564723579213</v>
+        <v>-0.0061898509966142323</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.012595104986409367</v>
+        <v>0.011545512904208577</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>-0.0050630528891398574</v>
+        <v>-0.00464113181504483</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.00062226034766071914</v>
+        <v>0.00057040531868904343</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiObjectLvl_Within-PLI_beta/roiObjectLvl_Within-PLI_beta.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_beta/roiObjectLvl_Within-PLI_beta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.010549247811476037</v>
+        <v>-0.011508270339792043</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0030123526500337172</v>
+        <v>-0.0032862028909458885</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>0.011475694376238826</v>
+        <v>0.012518939319533268</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0067731440402247489</v>
+        <v>-0.0073888844075179483</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.012409728384107227</v>
+        <v>0.013537885509935149</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0094434989861696128</v>
+        <v>0.010301998894003239</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0048763533862282993</v>
+        <v>0.0053196582395217962</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.013449268596327446</v>
+        <v>0.014671929377811782</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0059474031158357199</v>
+        <v>-0.0064880761263662601</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.014590860498788882</v>
+        <v>-0.015917302362315172</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.00080007848550045502</v>
+        <v>0.00087281289327323375</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0018281772408938468</v>
+        <v>-0.001994375171884194</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.0028283901365742381</v>
+        <v>-0.0030855165126264239</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.00019839107776339904</v>
+        <v>-0.00021642663028736964</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.00071931345768111443</v>
+        <v>0.00078470559019760966</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.0081565978305109255</v>
+        <v>-0.008898106724193694</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.0004152726152472086</v>
+        <v>-0.00045302467117877554</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0014540539902858085</v>
+        <v>-0.0015862407166754577</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0097729495245022779</v>
+        <v>-0.01066139948127523</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0033868272092909824</v>
+        <v>0.0036947205919537485</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.013612507041972643</v>
+        <v>-0.014850007682152028</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.00108275938589944</v>
+        <v>-0.0011811920573449042</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0037635298684690621</v>
+        <v>0.0041056689474207875</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0026654418171895011</v>
+        <v>0.0029077547096612866</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0050287985070593955</v>
+        <v>0.0054859620077011839</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0037576640009630291</v>
+        <v>0.0040992698192324206</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0059730201552147533</v>
+        <v>-0.0065160219875070313</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.0065426009373153182</v>
+        <v>-0.0071373828407076123</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0027357659345237373</v>
+        <v>0.0029844719285712917</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.0069693572109031376</v>
+        <v>-0.0076029351391670441</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.0021058944808536317</v>
+        <v>0.0022973394336584796</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.0015718884538151179</v>
+        <v>-0.0017147874041618938</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.0040893519154388824</v>
+        <v>0.0044611111804787329</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.002740395675178281</v>
+        <v>-0.0029895225547399429</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.0025324063804265384</v>
+        <v>-0.0027626251422835368</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.0010893528103673167</v>
+        <v>-0.0011883848840370803</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.0019284904195389918</v>
+        <v>-0.0021038077304061653</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0082355524686442694</v>
+        <v>0.0089842390567028141</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.0075482178915580733</v>
+        <v>0.0082344195180633906</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.0010466865841262107</v>
+        <v>-0.0011418399099558108</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.0096526206774654733</v>
+        <v>0.01053013164814412</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.012744960605014954</v>
+        <v>0.013903593387289054</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.0076846797861290783</v>
+        <v>-0.0083832870394135728</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.0058142752192040514</v>
+        <v>-0.0063428456936771294</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.018407059061364139</v>
+        <v>-0.020080428066942685</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.011831138789385853</v>
+        <v>0.012906696861148176</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.0017784562221901945</v>
+        <v>0.0019401340605711137</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.010590965134252728</v>
+        <v>0.011553780146457471</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0021829746391309746</v>
+        <v>0.0023814268790519344</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0049512367876211605</v>
+        <v>-0.0054013492228595639</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.0022273826621652948</v>
+        <v>-0.0024298719950894276</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.0049139220905753678</v>
+        <v>0.005360642280627631</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.0040895795726714479</v>
+        <v>-0.0044613595338232892</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.00045117080648693353</v>
+        <v>0.00049218633434935932</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.0049699579137985062</v>
+        <v>-0.0054217722695983905</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.00015134454493720417</v>
+        <v>0.00016510313993153836</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>0.0083546279198453144</v>
+        <v>0.0091141395489220955</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>0.00088763064306540684</v>
+        <v>0.00096832433788951455</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.0031214055670577556</v>
+        <v>-0.0034051697095175415</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>0.00043643174681820551</v>
+        <v>0.00047610736016531763</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.0028998196904375106</v>
+        <v>-0.0031634396622955141</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.0094268618772813395</v>
+        <v>0.010283849320670641</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.0088865928928041071</v>
+        <v>-0.0096944649739681144</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.012887333931792977</v>
+        <v>0.014058909743774078</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.006715570216714345</v>
+        <v>0.0073260766000520228</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.00079630514413123188</v>
+        <v>-0.0008686965208704045</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.0074866071719618399</v>
+        <v>0.0081672078239583834</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.010114287424070084</v>
+        <v>0.01103376809898543</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.0094386025450098887</v>
+        <v>-0.010296657321828967</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.0027820910973084811</v>
+        <v>0.0030350084697911006</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.011655240670941175</v>
+        <v>-0.012714808004663042</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.0057475613348992594</v>
+        <v>-0.0062700669107991214</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.0037099340541369985</v>
+        <v>-0.0040472007863312232</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.00547392198962246</v>
+        <v>-0.0059715512614063604</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>0.0027841728152286915</v>
+        <v>0.0030372794347949539</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.0024274137125798734</v>
+        <v>0.0026480876864507785</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0023152034021599599</v>
+        <v>-0.002525676438719926</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.0052537538950582219</v>
+        <v>-0.0057313678855181183</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.0056781795912231037</v>
+        <v>-0.0061943777358797192</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>0.0035906334215512481</v>
+        <v>0.0039170546416923691</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>0.007764948084496931</v>
+        <v>0.008470852455814859</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.00089767767113302366</v>
+        <v>-0.000979284732145147</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0062836838731979705</v>
+        <v>0.0068549278616704123</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>-0.012250438389154739</v>
+        <v>-0.013364114606350647</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>0.0007671361838028079</v>
+        <v>0.00083687583687583333</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.0078901965057571188</v>
+        <v>0.0086074870971896145</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.0023908484053411783</v>
+        <v>-0.0026081982603721743</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>0.0049981535965517854</v>
+        <v>0.0054525311962383138</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>0.0037730418165200508</v>
+        <v>0.0041160456180218408</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.0028609806778321367</v>
+        <v>-0.0031210698303623108</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.0019098420366536195</v>
+        <v>0.0020834640399857995</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.0047975139712636283</v>
+        <v>-0.0052336516050148219</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.00086654977959327306</v>
+        <v>0.00094532703228356052</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.0022177177974279372</v>
+        <v>0.0024193285062850678</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.0015714472236211807</v>
+        <v>-0.0017143060621321871</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.00020109395109396688</v>
+        <v>0.00021937521937523408</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.0034555743222791646</v>
+        <v>0.0037697174424863034</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.005027773886060849</v>
+        <v>-0.0054848442393391483</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.0027500935962146145</v>
+        <v>0.0030001021049613497</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.0019871671086505727</v>
+        <v>0.0021678186639823849</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>9.8384764533832048e-05</v>
+        <v>0.00010732883403691273</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.0067542932363498231</v>
+        <v>-0.0073683198941998373</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.0085141047830833705</v>
+        <v>-0.0092881143088182627</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.008486182915689644</v>
+        <v>-0.0092576540898432758</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.0031347988775524416</v>
+        <v>-0.0034197805936936887</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.004263064239171388</v>
+        <v>-0.0046506155336415167</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.0049887368210349836</v>
+        <v>0.005442258350219914</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>0.006629525738922698</v>
+        <v>0.0072322098970065973</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.012209654083360028</v>
+        <v>-0.013319622636392775</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.008657664693133782</v>
+        <v>-0.0094447251197822824</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.010915832020904459</v>
+        <v>0.011908180386441231</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.0049971183816026887</v>
+        <v>0.0054514018708392564</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>0.0087092188541463555</v>
+        <v>0.0095009660227051429</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>0.0023767478005694009</v>
+        <v>0.0025928157824393894</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.00075210582456958219</v>
+        <v>-0.00082047908134860736</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.022502838292311922</v>
+        <v>0.024548550864340268</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.012407892842675433</v>
+        <v>-0.013535883101100488</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>0.0053203234458001902</v>
+        <v>0.0058039892136002025</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.0014451512234693042</v>
+        <v>0.0015765286074210516</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>0.0083718054732547231</v>
+        <v>0.0091328786980961196</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.0016017570365396139</v>
+        <v>-0.0017473713125886192</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.0051083881284666177</v>
+        <v>-0.0055727870492363607</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>-0.0041083279307916887</v>
+        <v>-0.0044818122881364331</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.0040320857557362422</v>
+        <v>-0.0043986390062577541</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.023684642939301337</v>
+        <v>0.025837792297419587</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.0044252326861022595</v>
+        <v>-0.00482752656665697</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0020237413051422681</v>
+        <v>-0.0022077177874279819</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.0017089183238252204</v>
+        <v>-0.0018642745350820333</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>-0.003393103793561475</v>
+        <v>-0.0037015677747943287</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.0033285196328674826</v>
+        <v>0.003631112326764524</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>-0.0056833762497378593</v>
+        <v>-0.006200046817895849</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.017308991833448389</v>
+        <v>-0.018882536545580086</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.0068772188337405948</v>
+        <v>0.0075024205458987803</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0052327376412044657</v>
+        <v>-0.0057084410631322025</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.0029455917137076459</v>
+        <v>-0.0032133727785901289</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.0027597677769302109</v>
+        <v>-0.0030106557566511316</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.003134772394879165</v>
+        <v>0.0034197517035045033</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.0045776291962409121</v>
+        <v>0.0049937773049900658</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>0.0071529014557500381</v>
+        <v>0.0078031652244545113</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.0022196109152630428</v>
+        <v>0.0024213937257415719</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>-0.0014257151938311674</v>
+        <v>-0.0015553256659975589</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>-0.007046642916208129</v>
+        <v>-0.0076872468176815978</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.0019330144588943776</v>
+        <v>-0.0021087430460666745</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.0014833350431176229</v>
+        <v>-0.0016181836834009977</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.010519959318586347</v>
+        <v>0.011476319256639667</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.008396528738143616</v>
+        <v>-0.0091598495325203311</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.0087290515679262215</v>
+        <v>0.009522601710464984</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>-0.0034423884288015127</v>
+        <v>-0.0037553328314197942</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>-0.00049824370476547752</v>
+        <v>-0.00054353858701686186</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.0047844486694302302</v>
+        <v>-0.0052193985484693395</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.0068967321064956622</v>
+        <v>0.007523707752540687</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>0.0027307180323326019</v>
+        <v>0.0029789651261810379</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.0048363136872454082</v>
+        <v>0.0052759785679039883</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.003794944012335294</v>
+        <v>0.0041399389225475758</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0039225401544242255</v>
+        <v>-0.0042791347139173042</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.011317995013647192</v>
+        <v>-0.012346903651251462</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>-0.0032040889356279578</v>
+        <v>-0.0034953697479577495</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.001559814673419202</v>
+        <v>0.0017016160073664299</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.0039395416810875383</v>
+        <v>0.0042976818339137135</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0083573646850044481</v>
+        <v>-0.0091171251109139206</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.0010959144449426694</v>
+        <v>0.0011955430308465687</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.0068336513349301908</v>
+        <v>-0.0074548923653783017</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.0010298996282977757</v>
+        <v>-0.0011235268672339371</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.0032649706562750402</v>
+        <v>-0.0035617861704818066</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.0063263962720485067</v>
+        <v>0.0069015232058710074</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.00085180270938778335</v>
+        <v>0.00092923931933217019</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.0045766263157567544</v>
+        <v>0.0049926832535528154</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.0056555002207176186</v>
+        <v>-0.0061696366044191875</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.011516252277121802</v>
+        <v>0.012563184302314789</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.0063786612699656131</v>
+        <v>-0.0069585395672351891</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.0061898509966142323</v>
+        <v>-0.006752564723579213</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.011545512904208577</v>
+        <v>0.012595104986409367</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>-0.00464113181504483</v>
+        <v>-0.0050630528891398574</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.00057040531868904343</v>
+        <v>0.00062226034766071914</v>
       </c>
     </row>
   </sheetData>
